--- a/data/Freguesias_agua_potavel.xlsx
+++ b/data/Freguesias_agua_potavel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09B4C9-D309-4059-9443-E5281B7390A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC34067-0450-4718-BB7F-BF0C2992914F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>Ano</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>São Vicente</t>
-  </si>
-  <si>
-    <t>S. Dom.de Benfica</t>
   </si>
   <si>
     <t>N_contadores</t>
@@ -481,1001 +478,1409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>922703</v>
+        <v>941149</v>
       </c>
       <c r="C2" s="1">
-        <v>675800</v>
+        <v>687435</v>
       </c>
       <c r="D2" s="1">
-        <v>9460</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30</v>
+        <v>9469</v>
       </c>
       <c r="F2" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>1128630</v>
-      </c>
-      <c r="C3" s="2">
-        <v>612493</v>
+        <v>1130578</v>
+      </c>
+      <c r="C3" s="1">
+        <v>622136</v>
       </c>
       <c r="D3" s="1">
-        <v>8563</v>
-      </c>
-      <c r="E3" s="1">
-        <v>53</v>
+        <v>8576</v>
       </c>
       <c r="F3" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>3523439</v>
+        <v>3452063</v>
       </c>
       <c r="C4" s="1">
-        <v>1736699</v>
+        <v>1744701</v>
       </c>
       <c r="D4" s="1">
-        <v>22184</v>
-      </c>
-      <c r="E4" s="1">
-        <v>175</v>
+        <v>22197</v>
       </c>
       <c r="F4" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>1574302</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1001431</v>
+        <v>1596766</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1009698</v>
       </c>
       <c r="D5" s="1">
-        <v>12817</v>
-      </c>
-      <c r="E5" s="1">
-        <v>54</v>
+        <v>12791</v>
       </c>
       <c r="F5" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>3488623</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1913047</v>
+        <v>3462032</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1925180</v>
       </c>
       <c r="D6" s="1">
-        <v>25964</v>
-      </c>
-      <c r="E6" s="1">
-        <v>149</v>
+        <v>26036</v>
       </c>
       <c r="F6" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>3813056</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1228566</v>
+        <v>3948277</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1246742</v>
       </c>
       <c r="D7" s="1">
-        <v>18810</v>
-      </c>
-      <c r="E7" s="1">
-        <v>144</v>
+        <v>18825</v>
       </c>
       <c r="F7" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>670527</v>
+        <v>676202</v>
       </c>
       <c r="C8" s="1">
-        <v>507144</v>
+        <v>512199</v>
       </c>
       <c r="D8" s="1">
-        <v>6948</v>
-      </c>
-      <c r="E8" s="1">
-        <v>25</v>
+        <v>6949</v>
       </c>
       <c r="F8" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>2315620</v>
+        <v>2400420</v>
       </c>
       <c r="C9" s="1">
-        <v>959468</v>
+        <v>995106</v>
       </c>
       <c r="D9" s="1">
-        <v>10305</v>
-      </c>
-      <c r="E9" s="1">
-        <v>119</v>
+        <v>10376</v>
       </c>
       <c r="F9" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>2627440</v>
+        <v>2631899</v>
       </c>
       <c r="C10" s="1">
-        <v>1712627</v>
+        <v>1726732</v>
       </c>
       <c r="D10" s="1">
-        <v>23725</v>
-      </c>
-      <c r="E10" s="1">
-        <v>90</v>
+        <v>23851</v>
       </c>
       <c r="F10" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>1440057</v>
+        <v>1456012</v>
       </c>
       <c r="C11" s="1">
-        <v>962752</v>
+        <v>965477</v>
       </c>
       <c r="D11" s="1">
-        <v>13378</v>
-      </c>
-      <c r="E11" s="1">
-        <v>56</v>
+        <v>13394</v>
       </c>
       <c r="F11" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1551043</v>
+        <v>1487466</v>
       </c>
       <c r="C12" s="1">
-        <v>767022</v>
+        <v>780706</v>
       </c>
       <c r="D12" s="1">
-        <v>10480</v>
-      </c>
-      <c r="E12" s="1">
-        <v>113</v>
+        <v>10534</v>
       </c>
       <c r="F12" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>1567751</v>
+        <v>1587447</v>
       </c>
       <c r="C13" s="1">
-        <v>766044</v>
+        <v>767822</v>
       </c>
       <c r="D13" s="1">
-        <v>9257</v>
-      </c>
-      <c r="E13" s="1">
-        <v>74</v>
+        <v>9232</v>
       </c>
       <c r="F13" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>1817524</v>
+        <v>1905059</v>
       </c>
       <c r="C14" s="1">
-        <v>1121230</v>
+        <v>1131714</v>
       </c>
       <c r="D14" s="1">
-        <v>14933</v>
-      </c>
-      <c r="E14" s="1">
-        <v>116</v>
+        <v>15036</v>
       </c>
       <c r="F14" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>3401550</v>
+        <v>3447805</v>
       </c>
       <c r="C15" s="1">
-        <v>2312163</v>
+        <v>2333792</v>
       </c>
       <c r="D15" s="1">
-        <v>26042</v>
-      </c>
-      <c r="E15" s="1">
-        <v>214</v>
+        <v>26179</v>
       </c>
       <c r="F15" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>2215483</v>
+        <v>2280304</v>
       </c>
       <c r="C16" s="1">
-        <v>1401142</v>
+        <v>1425923</v>
       </c>
       <c r="D16" s="1">
-        <v>17118</v>
-      </c>
-      <c r="E16" s="1">
-        <v>125</v>
+        <v>17127</v>
       </c>
       <c r="F16" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>1507314</v>
+        <v>1538916</v>
       </c>
       <c r="C17" s="1">
-        <v>636851</v>
+        <v>622562</v>
       </c>
       <c r="D17" s="1">
-        <v>11519</v>
-      </c>
-      <c r="E17" s="1">
-        <v>88</v>
+        <v>11686</v>
       </c>
       <c r="F17" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>2757850</v>
+        <v>2770232</v>
       </c>
       <c r="C18" s="1">
-        <v>1407536</v>
+        <v>1418502</v>
       </c>
       <c r="D18" s="1">
-        <v>17470</v>
-      </c>
-      <c r="E18" s="1">
-        <v>87</v>
+        <v>17500</v>
       </c>
       <c r="F18" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>2206832</v>
+        <v>2314974</v>
       </c>
       <c r="C19" s="1">
-        <v>1101475</v>
+        <v>1118279</v>
       </c>
       <c r="D19" s="1">
-        <v>12715</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1129</v>
+        <v>12754</v>
       </c>
       <c r="F19" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>1570140</v>
+        <v>1650056</v>
       </c>
       <c r="C20" s="1">
-        <v>1267325</v>
+        <v>1316447</v>
       </c>
       <c r="D20" s="1">
-        <v>17449</v>
-      </c>
-      <c r="E20" s="1">
-        <v>75</v>
+        <v>17509</v>
       </c>
       <c r="F20" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>1127372</v>
+        <v>1151503</v>
       </c>
       <c r="C21" s="1">
-        <v>879416</v>
+        <v>899924</v>
       </c>
       <c r="D21" s="1">
-        <v>10588</v>
-      </c>
-      <c r="E21" s="1">
-        <v>28</v>
+        <v>10584</v>
       </c>
       <c r="F21" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>2301842</v>
+        <v>2360928</v>
       </c>
       <c r="C22" s="1">
-        <v>650382</v>
+        <v>667758</v>
       </c>
       <c r="D22" s="1">
-        <v>13690</v>
-      </c>
-      <c r="E22" s="1">
-        <v>117</v>
+        <v>13826</v>
       </c>
       <c r="F22" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>2448855</v>
+        <v>2550459</v>
       </c>
       <c r="C23" s="1">
-        <v>738867</v>
+        <v>743053</v>
       </c>
       <c r="D23" s="1">
-        <v>12341</v>
-      </c>
-      <c r="E23" s="1">
-        <v>165</v>
+        <v>12423</v>
       </c>
       <c r="F23" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>2761161</v>
+        <v>2760057</v>
       </c>
       <c r="C24" s="1">
-        <v>1720644</v>
+        <v>1725801</v>
       </c>
       <c r="D24" s="1">
-        <v>21059</v>
-      </c>
-      <c r="E24" s="1">
-        <v>88</v>
+        <v>21139</v>
       </c>
       <c r="F24" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>1070603</v>
+        <v>1079194</v>
       </c>
       <c r="C25" s="1">
-        <v>703182</v>
+        <v>714474</v>
       </c>
       <c r="D25" s="1">
-        <v>10616</v>
-      </c>
-      <c r="E25" s="1">
-        <v>35</v>
+        <v>10656</v>
       </c>
       <c r="F25" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>998104</v>
+        <v>922703</v>
       </c>
       <c r="C26" s="1">
-        <v>700179</v>
+        <v>675800</v>
       </c>
       <c r="D26" s="1">
-        <v>9412</v>
+        <v>9460</v>
       </c>
       <c r="E26" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>1197296</v>
-      </c>
-      <c r="C27" s="2">
-        <v>624694</v>
+        <v>1128630</v>
+      </c>
+      <c r="C27" s="1">
+        <v>612493</v>
       </c>
       <c r="D27" s="1">
-        <v>8490</v>
+        <v>8563</v>
       </c>
       <c r="E27" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>3672482</v>
+        <v>3523439</v>
       </c>
       <c r="C28" s="1">
-        <v>1796227</v>
+        <v>1736699</v>
       </c>
       <c r="D28" s="1">
-        <v>22196</v>
+        <v>22184</v>
       </c>
       <c r="E28" s="1">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F28" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="1">
-        <v>1646363</v>
+        <v>1574302</v>
       </c>
       <c r="C29" s="2">
-        <v>1026340</v>
+        <v>1001431</v>
       </c>
       <c r="D29" s="1">
-        <v>12787</v>
+        <v>12817</v>
       </c>
       <c r="E29" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>3608637</v>
+        <v>3488623</v>
       </c>
       <c r="C30" s="2">
-        <v>1955568</v>
+        <v>1913047</v>
       </c>
       <c r="D30" s="1">
-        <v>25869</v>
+        <v>25964</v>
       </c>
       <c r="E30" s="1">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="1">
-        <v>4105407</v>
+        <v>3813056</v>
       </c>
       <c r="C31" s="2">
-        <v>1240719</v>
+        <v>1228566</v>
       </c>
       <c r="D31" s="1">
-        <v>18601</v>
+        <v>18810</v>
       </c>
       <c r="E31" s="1">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F31" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="1">
-        <v>676846</v>
+        <v>670527</v>
       </c>
       <c r="C32" s="1">
-        <v>511237</v>
+        <v>507144</v>
       </c>
       <c r="D32" s="1">
-        <v>6929</v>
+        <v>6948</v>
       </c>
       <c r="E32" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>2511318</v>
+        <v>2315620</v>
       </c>
       <c r="C33" s="1">
-        <v>1017156</v>
+        <v>959468</v>
       </c>
       <c r="D33" s="1">
-        <v>10277</v>
+        <v>10305</v>
       </c>
       <c r="E33" s="1">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F33" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>2725395</v>
+        <v>2627440</v>
       </c>
       <c r="C34" s="1">
-        <v>1749470</v>
+        <v>1712627</v>
       </c>
       <c r="D34" s="1">
-        <v>23726</v>
+        <v>23725</v>
       </c>
       <c r="E34" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F34" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1">
-        <v>1481032</v>
+        <v>1440057</v>
       </c>
       <c r="C35" s="1">
-        <v>996575</v>
+        <v>962752</v>
       </c>
       <c r="D35" s="1">
-        <v>13472</v>
+        <v>13378</v>
       </c>
       <c r="E35" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F35" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1">
-        <v>1647086</v>
+        <v>1551043</v>
       </c>
       <c r="C36" s="1">
-        <v>786628</v>
+        <v>767022</v>
       </c>
       <c r="D36" s="1">
-        <v>10449</v>
+        <v>10480</v>
       </c>
       <c r="E36" s="1">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F36" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1">
-        <v>1603732</v>
+        <v>1567751</v>
       </c>
       <c r="C37" s="1">
-        <v>793124</v>
+        <v>766044</v>
       </c>
       <c r="D37" s="1">
-        <v>9265</v>
+        <v>9257</v>
       </c>
       <c r="E37" s="1">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F37" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="1">
-        <v>1887952</v>
+        <v>1817524</v>
       </c>
       <c r="C38" s="1">
-        <v>1147548</v>
+        <v>1121230</v>
       </c>
       <c r="D38" s="1">
-        <v>14871</v>
+        <v>14933</v>
       </c>
       <c r="E38" s="1">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1">
-        <v>3521655</v>
+        <v>3401550</v>
       </c>
       <c r="C39" s="1">
-        <v>2384600</v>
+        <v>2312163</v>
       </c>
       <c r="D39" s="1">
-        <v>25934</v>
+        <v>26042</v>
       </c>
       <c r="E39" s="1">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F39" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1">
-        <v>2273451</v>
+        <v>2215483</v>
       </c>
       <c r="C40" s="1">
-        <v>1436876</v>
+        <v>1401142</v>
       </c>
       <c r="D40" s="1">
-        <v>17102</v>
+        <v>17118</v>
       </c>
       <c r="E40" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F40" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="1">
-        <v>1518246</v>
+        <v>1507314</v>
       </c>
       <c r="C41" s="1">
-        <v>638948</v>
+        <v>636851</v>
       </c>
       <c r="D41" s="1">
-        <v>11446</v>
+        <v>11519</v>
       </c>
       <c r="E41" s="1">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1">
-        <v>3053329</v>
+        <v>2757850</v>
       </c>
       <c r="C42" s="1">
-        <v>1451540</v>
+        <v>1407536</v>
       </c>
       <c r="D42" s="1">
-        <v>17629</v>
+        <v>17470</v>
       </c>
       <c r="E42" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1">
-        <v>2284102</v>
+        <v>2206832</v>
       </c>
       <c r="C43" s="1">
-        <v>1135196</v>
+        <v>1101475</v>
       </c>
       <c r="D43" s="1">
-        <v>12644</v>
+        <v>12715</v>
       </c>
       <c r="E43" s="1">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="F43" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="1">
-        <v>1619604</v>
+        <v>1570140</v>
       </c>
       <c r="C44" s="1">
-        <v>1305496</v>
+        <v>1267325</v>
       </c>
       <c r="D44" s="1">
-        <v>17448</v>
+        <v>17449</v>
       </c>
       <c r="E44" s="1">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="F44" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B45" s="1">
-        <v>1150310</v>
+        <v>1127372</v>
       </c>
       <c r="C45" s="1">
-        <v>893492</v>
+        <v>879416</v>
       </c>
       <c r="D45" s="1">
-        <v>10590</v>
+        <v>10588</v>
       </c>
       <c r="E45" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F45" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="1">
-        <v>2211000</v>
+        <v>2301842</v>
       </c>
       <c r="C46" s="1">
-        <v>649736</v>
+        <v>650382</v>
       </c>
       <c r="D46" s="1">
-        <v>13233</v>
+        <v>13690</v>
       </c>
       <c r="E46" s="1">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="F46" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="1">
-        <v>2500546</v>
+        <v>2448855</v>
       </c>
       <c r="C47" s="1">
-        <v>751110</v>
+        <v>738867</v>
       </c>
       <c r="D47" s="1">
-        <v>12199</v>
+        <v>12341</v>
       </c>
       <c r="E47" s="1">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="F47" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="1">
-        <v>2856904</v>
+        <v>2761161</v>
       </c>
       <c r="C48" s="1">
-        <v>1778167</v>
+        <v>1720644</v>
       </c>
       <c r="D48" s="1">
-        <v>20941</v>
+        <v>21059</v>
       </c>
       <c r="E48" s="1">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F48" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="1">
+        <v>1070603</v>
+      </c>
+      <c r="C49" s="1">
+        <v>703182</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10616</v>
+      </c>
+      <c r="E49" s="1">
+        <v>35</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>998104</v>
+      </c>
+      <c r="C50" s="1">
+        <v>700179</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9412</v>
+      </c>
+      <c r="E50" s="1">
+        <v>25</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1197296</v>
+      </c>
+      <c r="C51" s="2">
+        <v>624694</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8490</v>
+      </c>
+      <c r="E51" s="1">
+        <v>48</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3672482</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1796227</v>
+      </c>
+      <c r="D52" s="1">
+        <v>22196</v>
+      </c>
+      <c r="E52" s="1">
+        <v>152</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1646363</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1026340</v>
+      </c>
+      <c r="D53" s="1">
+        <v>12787</v>
+      </c>
+      <c r="E53" s="1">
+        <v>49</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3608637</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1955568</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25869</v>
+      </c>
+      <c r="E54" s="1">
+        <v>121</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4105407</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1240719</v>
+      </c>
+      <c r="D55" s="1">
+        <v>18601</v>
+      </c>
+      <c r="E55" s="1">
+        <v>129</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
+        <v>676846</v>
+      </c>
+      <c r="C56" s="1">
+        <v>511237</v>
+      </c>
+      <c r="D56" s="1">
+        <v>6929</v>
+      </c>
+      <c r="E56" s="1">
+        <v>20</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2511318</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1017156</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10277</v>
+      </c>
+      <c r="E57" s="1">
+        <v>109</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2725395</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1749470</v>
+      </c>
+      <c r="D58" s="1">
+        <v>23726</v>
+      </c>
+      <c r="E58" s="1">
+        <v>82</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1481032</v>
+      </c>
+      <c r="C59" s="1">
+        <v>996575</v>
+      </c>
+      <c r="D59" s="1">
+        <v>13472</v>
+      </c>
+      <c r="E59" s="1">
+        <v>50</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1647086</v>
+      </c>
+      <c r="C60" s="1">
+        <v>786628</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10449</v>
+      </c>
+      <c r="E60" s="1">
+        <v>92</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1603732</v>
+      </c>
+      <c r="C61" s="1">
+        <v>793124</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9265</v>
+      </c>
+      <c r="E61" s="1">
+        <v>68</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1887952</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1147548</v>
+      </c>
+      <c r="D62" s="1">
+        <v>14871</v>
+      </c>
+      <c r="E62" s="1">
+        <v>108</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3521655</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2384600</v>
+      </c>
+      <c r="D63" s="1">
+        <v>25934</v>
+      </c>
+      <c r="E63" s="1">
+        <v>203</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2273451</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1436876</v>
+      </c>
+      <c r="D64" s="1">
+        <v>17102</v>
+      </c>
+      <c r="E64" s="1">
+        <v>120</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1518246</v>
+      </c>
+      <c r="C65" s="1">
+        <v>638948</v>
+      </c>
+      <c r="D65" s="1">
+        <v>11446</v>
+      </c>
+      <c r="E65" s="1">
+        <v>75</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3053329</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1451540</v>
+      </c>
+      <c r="D66" s="1">
+        <v>17629</v>
+      </c>
+      <c r="E66" s="1">
+        <v>81</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2284102</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1135196</v>
+      </c>
+      <c r="D67" s="1">
+        <v>12644</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1117</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1619604</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1305496</v>
+      </c>
+      <c r="D68" s="1">
+        <v>17448</v>
+      </c>
+      <c r="E68" s="1">
+        <v>37</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1150310</v>
+      </c>
+      <c r="C69" s="1">
+        <v>893492</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10590</v>
+      </c>
+      <c r="E69" s="1">
+        <v>26</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2211000</v>
+      </c>
+      <c r="C70" s="1">
+        <v>649736</v>
+      </c>
+      <c r="D70" s="1">
+        <v>13233</v>
+      </c>
+      <c r="E70" s="1">
+        <v>88</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2500546</v>
+      </c>
+      <c r="C71" s="1">
+        <v>751110</v>
+      </c>
+      <c r="D71" s="1">
+        <v>12199</v>
+      </c>
+      <c r="E71" s="1">
+        <v>148</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2856904</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1778167</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20941</v>
+      </c>
+      <c r="E72" s="1">
+        <v>76</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1">
         <v>1080574</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C73" s="1">
         <v>717470</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D73" s="1">
         <v>10563</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E73" s="1">
         <v>27</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F73" s="1">
         <v>2017</v>
       </c>
     </row>
